--- a/noc_project/test/output.xlsx
+++ b/noc_project/test/output.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Project" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contract" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Site" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Equipment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Circuit" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interface" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,35 +493,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Officemate</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16/02/2001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16/02/2002</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>01/10/2000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16/02/2002</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Makro</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>SO200162</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>01/10/2022</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>01/10/2023</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>01/10/2022</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>01/10/2023</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>IP : 58.97.106.134
 Port : 10443
@@ -525,7 +581,7 @@
 Password : pplus@123</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fortimanager IP : 10.x.x.x
 Fortianalyzer IP : 10.4.4.4
@@ -536,68 +592,16 @@
 *** ลูกค้าไม่ให้โทรหากลัง 18:00-7:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>ผู้ติดต่อหลัก : XXXXXXXXXX
 Sale True : พี่ปู่
 Sale PPLUS : ปลา</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Officemate</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16/02/2001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16/02/2002</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>01/10/2000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16/02/2002</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Super</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t xml:space="preserve">Suradech </t>
         </is>
       </c>
     </row>
@@ -923,4 +927,1099 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Project_Ref</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Site_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>site_short_name.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>contact_owner_site</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>contact_owner_Tel</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Makro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ลาดกระบัง</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>เลขที่ 583 แขวงลาดกระบัง เขตลาดกระบัง กรุงเทพฯ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LKB-S129</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ประชา เทสเซอร์วิส</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>02-0118780</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PPLUS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>กาต้า</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ใกล้เสาแรก</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FIFA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>03-722161</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Officemate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HQ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>เลขที่ 583 แขวงลาดกระบัง เขตลาดกระบัง กรุงเทพฯ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HQ-S001</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>เทส เทส</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>02-0118780</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>HQ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Site_Ref</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Serial_number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Equipment Brand</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Equipment Model</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Disty_name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Disty_contact</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Open_case_contact</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Start of warranty</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>End of warranty</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>HA Status</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Project_Ref</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ลาดกระบัง</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FGT60FTK20054815</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fortinet</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FG-60F</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SiS Distribution (Thailand) PCL.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>074-559082-4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>support_pack@sisthai.com</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Makro</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ลาดกระบัง</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FGT60FTK20036867</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fortinet</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FG-60F</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SiS Distribution (Thailand) PCL.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>074-559082-4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>support_pack@sisthai.com</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Backup</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Makro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HQ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FGT60FTK20036868</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fortinet</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FG-60F</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>02/09/2022</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>02/09/2024</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Officemate</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>กาต้า</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S108EN5920004745</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12/12/2022</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>16/02/2002</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>PPLUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ลาดกระบัง</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S108EN5920004706</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fortinet</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FS-108E</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SiS Distribution (Thailand) PCL.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>074-559082-4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>support_pack@sisthai.com</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Makro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ลาดกระบัง</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>S108EN5920004748</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fortinet</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FS-108E</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SiS Distribution (Thailand) PCL.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>074-559082-4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>support_pack@sisthai.com</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Makro</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Equipment_Ref</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Circuit_ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IP_address_PE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IP_address_CE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Subnet mask</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Equipment_Loopback</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Circuit_type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Link_number</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Original_ISP</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Owner ISP</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ISP_contact_Tel</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FGT60FTK20054815</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>V53802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.99.178.17</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.99.178.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>255.255.255.252</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.11.220.8</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MPLS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1239*6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>S108EN5920004745</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X13488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FGT60FTK20036867</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>U15480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.100.0.189</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.100.0.190</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>255.255.255.252</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.11.220.9</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>MPLS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>UIH</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1239*6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S108EN5920004706</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>J12418</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>171.103.210.225</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>171.103.210.226</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>255.255.255.252</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.11.220.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1239*6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Circuit_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Equipment Serial</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Equipment Brand</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Equipment Model</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Physical Interface</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>VLAN_ID</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tunnel Interface Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>V53802</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FGT60FTK20054815</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fortinet</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FG-60F</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wan1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>T21-CPF-HQ-MTG
+T22-CPF-HQ-BNA
+T11-CPF-HQ-MTG
+T12-CPF-HQ-BNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>X13488</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S108EN5920004745</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>T21-CPF-HQ-MTA
+T21-CPF-HQ-MTB</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>U15480</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FGT60FTK20036867</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fortinet</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FG-60F</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Wan2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>T21-CPF-HQ-MTG</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/noc_project/test/output.xlsx
+++ b/noc_project/test/output.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suradech </t>
+          <t>Suradech _Test</t>
         </is>
       </c>
     </row>

--- a/noc_project/test/output.xlsx
+++ b/noc_project/test/output.xlsx
@@ -594,9 +594,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ผู้ติดต่อหลัก : XXXXXXXXXX
-Sale True : พี่ปู่
-Sale PPLUS : ปลา</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/noc_project/test/output.xlsx
+++ b/noc_project/test/output.xlsx
@@ -493,87 +493,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Officemate</t>
+          <t>Makro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>SO200162</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16/02/2001</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16/02/2002</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>18/05/1903</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16/02/2002</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>Super</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Makro</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SO200162</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>01/10/2022</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>01/10/2023</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>01/10/2022</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>01/10/2023</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>IP : 58.97.106.134
 Port : 10443
@@ -581,7 +529,7 @@
 Password : pplus@123</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Fortimanager IP : 10.x.x.x
 Fortianalyzer IP : 10.4.4.4
@@ -592,6 +540,58 @@
 *** ลูกค้าไม่ให้โทรหากลัง 18:00-7:00</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ทดสอบ</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Suradech _Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Officemate</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16/02/2001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16/02/2002</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>01/10/2000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16/02/2002</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Test</t>
@@ -599,7 +599,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Suradech _Test</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/noc_project/test/output.xlsx
+++ b/noc_project/test/output.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Project" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contract" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Site" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Equipment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Circuit" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interface" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Project" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Contract" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Site" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Equipment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Circuit" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Interface" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>เลขที่ 6/1 หมู่ 1 ตำบล</t>
+          <t>เลขที่ 6/1 หมู่ 1 ตำบลพยอม อำเภอวังน้อย พระนครศรีอยุธยา</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
